--- a/india/reference_data/Residential and Commercial Installed Capacity by State.xlsx
+++ b/india/reference_data/Residential and Commercial Installed Capacity by State.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramdas\Documents\DGen\India\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/cw/2h_mg1qs39j29c_xlsvgh5vjlh_1_j/T/c01e49f3-f548-4dc7-a972-f6aabf8674b6/srv/data/home/skoebric/globetrotter_external/india/reference_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E529445-9E81-4193-A981-CFDDD9E0DC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4F63B-69C9-564B-AE32-556D9695DCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{511757BE-8E27-4803-BFFC-F0D7634B3226}"/>
+    <workbookView xWindow="2580" yWindow="3700" windowWidth="24860" windowHeight="19800" activeTab="2" xr2:uid="{511757BE-8E27-4803-BFFC-F0D7634B3226}"/>
   </bookViews>
   <sheets>
     <sheet name="Residential" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>Andhra Pradesh</t>
   </si>
@@ -143,6 +141,9 @@
   </si>
   <si>
     <t>North East</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
   </si>
 </sst>
 </file>
@@ -494,18 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5240821-99C5-4204-B868-3E7D21ECAAEE}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2017</v>
       </c>
@@ -516,7 +517,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,17 +531,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -554,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -568,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -582,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -596,7 +597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -610,7 +611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -624,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -638,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -652,7 +653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -666,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -680,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -694,27 +695,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -728,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -742,7 +743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -756,12 +757,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -775,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -789,12 +790,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -808,7 +809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -822,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -836,12 +837,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -855,17 +856,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -879,7 +880,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -893,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -907,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -919,6 +920,11 @@
       </c>
       <c r="D37">
         <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -928,18 +934,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D854C86-DA24-4773-BA63-E3D110669113}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2017</v>
       </c>
@@ -950,7 +956,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -964,17 +970,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -988,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1128,27 +1134,27 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1190,12 +1196,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1223,12 +1229,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1270,12 +1276,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1289,17 +1295,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1353,6 +1359,11 @@
       </c>
       <c r="D37">
         <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1362,18 +1373,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9629B1C8-0C78-4D21-A468-84AA3CB0E61D}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2017</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1398,17 +1409,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1531,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1562,27 +1573,27 @@
         <v>594</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1624,12 +1635,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1657,12 +1668,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +1687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1704,12 +1715,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1723,17 +1734,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1747,7 +1758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1787,6 +1798,11 @@
       </c>
       <c r="D37">
         <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
